--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.61395" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="13.327373" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.728761" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.480463" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="13.509463" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="9.140453" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.365104" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.838967" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="13.232439" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.483914" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.397054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.232439" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.187581" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
